--- a/Data/phenotypic data/RawData/2013 Data/BogUpper5-R7 (parents).xlsx
+++ b/Data/phenotypic data/RawData/2013 Data/BogUpper5-R7 (parents).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="100" windowWidth="28760" windowHeight="18140"/>
+    <workbookView xWindow="160" yWindow="100" windowWidth="25440" windowHeight="18140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -868,12 +868,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Z1223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="6.5" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="1.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" customWidth="1"/>
+    <col min="14" max="14" width="5" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" customWidth="1"/>
+    <col min="16" max="16" width="5.83203125" customWidth="1"/>
+    <col min="17" max="17" width="6.83203125" customWidth="1"/>
+    <col min="18" max="18" width="6.5" customWidth="1"/>
+    <col min="19" max="19" width="8.1640625" customWidth="1"/>
+    <col min="20" max="20" width="6.33203125" customWidth="1"/>
+    <col min="21" max="21" width="6" customWidth="1"/>
+    <col min="22" max="22" width="7.5" customWidth="1"/>
     <col min="23" max="23" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
